--- a/InputData/plcy-schd/FoPITY/Supporting Calculations for Policy Schedules.xlsx
+++ b/InputData/plcy-schd/FoPITY/Supporting Calculations for Policy Schedules.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\plcy-schd\FoPITY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\plcy-schd\FoPITY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC80F-56FE-4F69-9156-9B9DF560C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84DCDB-480C-4069-9D95-E40102BB0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="615" windowWidth="22590" windowHeight="21675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
     <sheet name="R&amp;D Policies" sheetId="2" r:id="rId2"/>
+    <sheet name="RPS settings" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="final_year">'R&amp;D Policies'!#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>the end year.  All three of these default patterns are examples chosen to</t>
   </si>
@@ -93,13 +94,194 @@
   </si>
   <si>
     <t>none needed</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>ROUNDED to six figures</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>"Schedule 1",(2021,0),(2022,0),(2023,0.015069),(2024,0.020039),(2025,0.026606),(2026,0.03525),(2027,0.04657),(2028,0.0613),(2029,0.080307),(2030,0.104569),(2031,0.135111),(2032,0.172899),(2033,0.218658),(2034,0.272653),(2035,0.33445),(2036,0.402756),(2037,0.475409),(2038,0.549591),(2039,0.622244),(2040,0.69055),(2041,0.752347),(2042,0.806342),(2043,0.852101),(2044,0.889889),(2045,0.920431),(2046,0.944693),(2047,0.9637),(2048,0.97843),(2049,0.98975),(2050,0.998394)</t>
+  </si>
+  <si>
+    <t>"Schedule 1",</t>
+  </si>
+  <si>
+    <t>"Schedule 1,(2021,0),(2022,0),(2023,0.015069),(2024,0.020039),(2025,0.026606),(2026,0.03525),(2027,0.04657),(2028,0.0613),(2029,0.080307),(2030,0.104569),(2031,0.135111),(2032,0.172899),(2033,0.218658),(2034,0.272653),(2035,0.33445),(2036,0.402756),(2037,0.475409),(2038,0.549591),(2039,0.622244),(2040,0.69055),(2041,0.752347),(2042,0.806342),(2043,0.852101),(2044,0.889889),(2045,0.920431),(2046,0.944693),(2047,0.9637),(2048,0.97843),(2049,0.98975),(2050,0.998394)</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hard coal es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas steam turbine es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas combined cycle es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[nuclear es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hydro es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[onshore wind es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[solar PV es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[solar thermal es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[biomass es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[geothermal es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[petroleum es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas peaker es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[lignite es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[offshore wind es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[crude oil es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[heavy or residual fuel oil es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[municipal solid waste es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hard coal w CCS es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas combined cycle w CCS es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[biomass w CCS es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[lignite w CCS es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[small modular reactor es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hydrogen combustion turbine es] : test</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hydrogen combined cycle es] : test</t>
+  </si>
+  <si>
+    <t>RPS VALUE</t>
+  </si>
+  <si>
+    <t>ROUND DOWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +318,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,15 +454,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -275,8 +470,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
+    <cellStyle name="Comma" xfId="12" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -444,91 +643,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1317442005127826E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5068964918956498E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0039464446169435E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6606291127741783E-2</c:v>
+                  <c:v>4.550228438872473E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5249552635410054E-2</c:v>
+                  <c:v>6.7731651353762738E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6569675006453516E-2</c:v>
+                  <c:v>1.0071223489307168E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1300011521898706E-2</c:v>
+                  <c:v>1.4951320073592332E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0307238087136135E-2</c:v>
+                  <c:v>2.2143846187364032E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10456852091885868</c:v>
+                  <c:v>3.2683010274831906E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13511100856602506</c:v>
+                  <c:v>4.7994983655697585E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.172898634257765</c:v>
+                  <c:v>6.9968081387466977E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21865784601125693</c:v>
+                  <c:v>0.10094749498912135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27265254556539109</c:v>
+                  <c:v>0.14355327767929363</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33445022305911554</c:v>
+                  <c:v>0.20018990477871523</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40275633722650384</c:v>
+                  <c:v>0.27216871842643509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.47540871426241038</c:v>
+                  <c:v>0.35859581809949498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.54959128573758953</c:v>
+                  <c:v>0.45556799471977238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62224366277349608</c:v>
+                  <c:v>0.55643200528022774</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69054977694088449</c:v>
+                  <c:v>0.65340418190050498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.75234745443460882</c:v>
+                  <c:v>0.73983128157356493</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.80634215398874309</c:v>
+                  <c:v>0.81181009522128478</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.85210136574223494</c:v>
+                  <c:v>0.86844672232070641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88988899143397482</c:v>
+                  <c:v>0.91105250501087864</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9204314790811412</c:v>
+                  <c:v>0.9420319186125331</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.94469276191286389</c:v>
+                  <c:v>0.96400501634430247</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96369998847810123</c:v>
+                  <c:v>0.97931698972516823</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97843032499354643</c:v>
+                  <c:v>0.98985615381263592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98975044736458984</c:v>
+                  <c:v>0.99704867992640767</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99839370887225809</c:v>
+                  <c:v>1.0019287765106928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,9 +882,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,26 +917,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,26 +952,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,7 +1130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8D652C-DDA1-4972-BD18-A83039143417}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -993,9 +1160,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1003,15 +1172,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1077,123 +1246,121 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+        <v>1.012</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="8">
+        <v>-16.5</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>2020</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>2022</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>2023</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>2024</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>2025</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>2026</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>2027</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <v>2028</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <v>2029</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <v>2030</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>2031</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="10">
         <v>2032</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <v>2033</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="10">
         <v>2034</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="10">
         <v>2035</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="10">
         <v>2036</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="10">
         <v>2037</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="10">
         <v>2038</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="10">
         <v>2039</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="10">
         <v>2040</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V46" s="10">
         <v>2041</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W46" s="10">
         <v>2042</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="10">
         <v>2043</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="10">
         <v>2044</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z46" s="10">
         <v>2045</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="10">
         <v>2046</v>
       </c>
-      <c r="AB46" s="11">
+      <c r="AB46" s="10">
         <v>2047</v>
       </c>
-      <c r="AC46" s="11">
+      <c r="AC46" s="10">
         <v>2048</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AD46" s="10">
         <v>2049</v>
       </c>
-      <c r="AE46" s="11">
+      <c r="AE46" s="10">
         <v>2050</v>
       </c>
     </row>
@@ -1205,120 +1372,408 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:U47" si="0">$B$15/(1+EXP($B$16*(B46-$B46+$B$17)))</f>
-        <v>1.1317442005127826E-2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1.5068964918956498E-2</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>2.0039464446169435E-2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>2.6606291127741783E-2</v>
+        <f>$B$15/(1+EXP($B$16*(E46-$B46+$B$17)))</f>
+        <v>4.550228438872473E-3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>3.5249552635410054E-2</v>
+        <f t="shared" ref="G47:U47" si="0">$B$15/(1+EXP($B$16*(F46-$B46+$B$17)))</f>
+        <v>6.7731651353762738E-3</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>4.6569675006453516E-2</v>
+        <v>1.0071223489307168E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>6.1300011521898706E-2</v>
+        <v>1.4951320073592332E-2</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>8.0307238087136135E-2</v>
+        <v>2.2143846187364032E-2</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>0.10456852091885868</v>
+        <v>3.2683010274831906E-2</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>0.13511100856602506</v>
+        <v>4.7994983655697585E-2</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.172898634257765</v>
+        <v>6.9968081387466977E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>0.21865784601125693</v>
+        <v>0.10094749498912135</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
-        <v>0.27265254556539109</v>
+        <v>0.14355327767929363</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>0.33445022305911554</v>
+        <v>0.20018990477871523</v>
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
-        <v>0.40275633722650384</v>
+        <v>0.27216871842643509</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
-        <v>0.47540871426241038</v>
+        <v>0.35859581809949498</v>
       </c>
       <c r="S47">
         <f t="shared" si="0"/>
-        <v>0.54959128573758953</v>
+        <v>0.45556799471977238</v>
       </c>
       <c r="T47">
         <f t="shared" si="0"/>
-        <v>0.62224366277349608</v>
+        <v>0.55643200528022774</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>0.69054977694088449</v>
+        <v>0.65340418190050498</v>
       </c>
       <c r="V47">
         <f>$B$15/(1+EXP($B$16*(U46-$B46+$B$17)))</f>
-        <v>0.75234745443460882</v>
+        <v>0.73983128157356493</v>
       </c>
       <c r="W47">
         <f t="shared" ref="W47" si="1">$B$15/(1+EXP($B$16*(V46-$B46+$B$17)))</f>
-        <v>0.80634215398874309</v>
+        <v>0.81181009522128478</v>
       </c>
       <c r="X47">
         <f t="shared" ref="X47" si="2">$B$15/(1+EXP($B$16*(W46-$B46+$B$17)))</f>
-        <v>0.85210136574223494</v>
+        <v>0.86844672232070641</v>
       </c>
       <c r="Y47">
         <f>$B$15/(1+EXP($B$16*(X46-$B46+$B$17)))</f>
-        <v>0.88988899143397482</v>
+        <v>0.91105250501087864</v>
       </c>
       <c r="Z47">
         <f t="shared" ref="Z47" si="3">$B$15/(1+EXP($B$16*(Y46-$B46+$B$17)))</f>
-        <v>0.9204314790811412</v>
+        <v>0.9420319186125331</v>
       </c>
       <c r="AA47">
         <f t="shared" ref="AA47" si="4">$B$15/(1+EXP($B$16*(Z46-$B46+$B$17)))</f>
-        <v>0.94469276191286389</v>
+        <v>0.96400501634430247</v>
       </c>
       <c r="AB47">
         <f t="shared" ref="AB47" si="5">$B$15/(1+EXP($B$16*(AA46-$B46+$B$17)))</f>
-        <v>0.96369998847810123</v>
+        <v>0.97931698972516823</v>
       </c>
       <c r="AC47">
         <f t="shared" ref="AC47" si="6">$B$15/(1+EXP($B$16*(AB46-$B46+$B$17)))</f>
-        <v>0.97843032499354643</v>
+        <v>0.98985615381263592</v>
       </c>
       <c r="AD47">
         <f t="shared" ref="AD47" si="7">$B$15/(1+EXP($B$16*(AC46-$B46+$B$17)))</f>
-        <v>0.98975044736458984</v>
+        <v>0.99704867992640767</v>
       </c>
       <c r="AE47">
         <f t="shared" ref="AE47" si="8">$B$15/(1+EXP($B$16*(AD46-$B46+$B$17)))</f>
-        <v>0.99839370887225809</v>
+        <v>1.0019287765106928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>MIN(ROUND(A47,6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:AE50" si="9">MIN(ROUND(B47,6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="9"/>
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>6.7730000000000004E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>1.0071E-2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="9"/>
+        <v>1.4951000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="9"/>
+        <v>2.2144E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>3.2682999999999997E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>4.7995000000000003E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="9"/>
+        <v>6.9968000000000002E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="9"/>
+        <v>0.100947</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>0.14355299999999999</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="9"/>
+        <v>0.20019000000000001</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>0.27216899999999999</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="9"/>
+        <v>0.35859600000000003</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>0.45556799999999997</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="9"/>
+        <v>0.55643200000000004</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="9"/>
+        <v>0.65340399999999998</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="9"/>
+        <v>0.73983100000000002</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="9"/>
+        <v>0.81181000000000003</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="9"/>
+        <v>0.86844699999999997</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="9"/>
+        <v>0.911053</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="9"/>
+        <v>0.94203199999999998</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="9"/>
+        <v>0.964005</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="9"/>
+        <v>0.97931699999999999</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="9"/>
+        <v>0.98985599999999996</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="9"/>
+        <v>0.99704899999999996</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>"("&amp;B46&amp;","&amp;B50&amp;"),"</f>
+        <v>(2021,0),</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:AD52" si="10">"("&amp;C46&amp;","&amp;C50&amp;"),"</f>
+        <v>(2022,0),</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2023,0),</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2024,0),</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2025,0.00455),</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2026,0.006773),</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2027,0.010071),</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2028,0.014951),</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2029,0.022144),</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2030,0.032683),</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2031,0.047995),</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2032,0.069968),</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2033,0.100947),</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2034,0.143553),</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2035,0.20019),</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2036,0.272169),</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2037,0.358596),</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2038,0.455568),</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2039,0.556432),</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2040,0.653404),</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2041,0.739831),</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2042,0.81181),</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2043,0.868447),</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2044,0.911053),</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2045,0.942032),</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2046,0.964005),</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2047,0.979317),</v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2048,0.989856),</v>
+      </c>
+      <c r="AD52" t="str">
+        <f t="shared" si="10"/>
+        <v>(2049,0.997049),</v>
+      </c>
+      <c r="AE52" t="str">
+        <f>"("&amp;AE46&amp;","&amp;AE50&amp;")"</f>
+        <v>(2050,1)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT(B52:AE52)</f>
+        <v>(2021,0),(2022,0),(2023,0),(2024,0),(2025,0.00455),(2026,0.006773),(2027,0.010071),(2028,0.014951),(2029,0.022144),(2030,0.032683),(2031,0.047995),(2032,0.069968),(2033,0.100947),(2034,0.143553),(2035,0.20019),(2036,0.272169),(2037,0.358596),(2038,0.455568),(2039,0.556432),(2040,0.653404),(2041,0.739831),(2042,0.81181),(2043,0.868447),(2044,0.911053),(2045,0.942032),(2046,0.964005),(2047,0.979317),(2048,0.989856),(2049,0.997049),(2050,1)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f>A56&amp;B53</f>
+        <v>"Schedule 1",(2021,0),(2022,0),(2023,0),(2024,0),(2025,0.00455),(2026,0.006773),(2027,0.010071),(2028,0.014951),(2029,0.022144),(2030,0.032683),(2031,0.047995),(2032,0.069968),(2033,0.100947),(2034,0.143553),(2035,0.20019),(2036,0.272169),(2037,0.358596),(2038,0.455568),(2039,0.556432),(2040,0.653404),(2041,0.739831),(2042,0.81181),(2043,0.868447),(2044,0.911053),(2045,0.942032),(2046,0.964005),(2047,0.979317),(2048,0.989856),(2049,0.997049),(2050,1)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1331,4 +1786,5022 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5DA43-53FD-4497-97D1-9F67DD3F1638}">
+  <dimension ref="A1:AE55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>2021</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27">
+        <v>2024</v>
+      </c>
+      <c r="F27">
+        <v>2025</v>
+      </c>
+      <c r="G27">
+        <v>2026</v>
+      </c>
+      <c r="H27">
+        <v>2027</v>
+      </c>
+      <c r="I27">
+        <v>2028</v>
+      </c>
+      <c r="J27">
+        <v>2029</v>
+      </c>
+      <c r="K27">
+        <v>2030</v>
+      </c>
+      <c r="L27">
+        <v>2031</v>
+      </c>
+      <c r="M27">
+        <v>2032</v>
+      </c>
+      <c r="N27">
+        <v>2033</v>
+      </c>
+      <c r="O27">
+        <v>2034</v>
+      </c>
+      <c r="P27">
+        <v>2035</v>
+      </c>
+      <c r="Q27">
+        <v>2036</v>
+      </c>
+      <c r="R27">
+        <v>2037</v>
+      </c>
+      <c r="S27">
+        <v>2038</v>
+      </c>
+      <c r="T27">
+        <v>2039</v>
+      </c>
+      <c r="U27">
+        <v>2040</v>
+      </c>
+      <c r="V27">
+        <v>2041</v>
+      </c>
+      <c r="W27">
+        <v>2042</v>
+      </c>
+      <c r="X27">
+        <v>2043</v>
+      </c>
+      <c r="Y27">
+        <v>2044</v>
+      </c>
+      <c r="Z27">
+        <v>2045</v>
+      </c>
+      <c r="AA27">
+        <v>2046</v>
+      </c>
+      <c r="AB27">
+        <v>2047</v>
+      </c>
+      <c r="AC27">
+        <v>2048</v>
+      </c>
+      <c r="AD27">
+        <v>2049</v>
+      </c>
+      <c r="AE27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>873.09699999999998</v>
+      </c>
+      <c r="C28">
+        <v>817.56899999999996</v>
+      </c>
+      <c r="D28">
+        <v>681.58399999999995</v>
+      </c>
+      <c r="E28">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F28">
+        <v>702.23699999999997</v>
+      </c>
+      <c r="G28">
+        <v>649.33600000000001</v>
+      </c>
+      <c r="H28">
+        <v>537.59299999999996</v>
+      </c>
+      <c r="I28">
+        <v>402.04599999999999</v>
+      </c>
+      <c r="J28">
+        <v>300.40899999999999</v>
+      </c>
+      <c r="K28">
+        <v>205.75399999999999</v>
+      </c>
+      <c r="L28">
+        <v>152.89500000000001</v>
+      </c>
+      <c r="M28">
+        <v>109.40900000000001</v>
+      </c>
+      <c r="N28">
+        <v>77.478099999999998</v>
+      </c>
+      <c r="O28">
+        <v>41.7164</v>
+      </c>
+      <c r="P28">
+        <v>2.2237</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>65.238799999999998</v>
+      </c>
+      <c r="C29">
+        <v>72.1374</v>
+      </c>
+      <c r="D29">
+        <v>73.561400000000006</v>
+      </c>
+      <c r="E29">
+        <v>78.955299999999994</v>
+      </c>
+      <c r="F29">
+        <v>43.509799999999998</v>
+      </c>
+      <c r="G29">
+        <v>29.688700000000001</v>
+      </c>
+      <c r="H29">
+        <v>30.0901</v>
+      </c>
+      <c r="I29">
+        <v>35.133299999999998</v>
+      </c>
+      <c r="J29">
+        <v>36.371299999999998</v>
+      </c>
+      <c r="K29">
+        <v>37.954300000000003</v>
+      </c>
+      <c r="L29">
+        <v>26.305299999999999</v>
+      </c>
+      <c r="M29">
+        <v>20.703299999999999</v>
+      </c>
+      <c r="N29">
+        <v>18.930499999999999</v>
+      </c>
+      <c r="O29">
+        <v>18.328600000000002</v>
+      </c>
+      <c r="P29">
+        <v>18.3917</v>
+      </c>
+      <c r="Q29">
+        <v>17.929099999999998</v>
+      </c>
+      <c r="R29">
+        <v>14.9717</v>
+      </c>
+      <c r="S29">
+        <v>10.4971</v>
+      </c>
+      <c r="T29">
+        <v>7.4978999999999996</v>
+      </c>
+      <c r="U29">
+        <v>5.1995199999999997</v>
+      </c>
+      <c r="V29">
+        <v>4.5820600000000002</v>
+      </c>
+      <c r="W29">
+        <v>5.1976899999999997</v>
+      </c>
+      <c r="X29">
+        <v>7.0167400000000004</v>
+      </c>
+      <c r="Y29">
+        <v>9.3414699999999993</v>
+      </c>
+      <c r="Z29">
+        <v>11.7706</v>
+      </c>
+      <c r="AA29">
+        <v>15.335699999999999</v>
+      </c>
+      <c r="AB29">
+        <v>19.510400000000001</v>
+      </c>
+      <c r="AC29">
+        <v>23.136099999999999</v>
+      </c>
+      <c r="AD29">
+        <v>26.145700000000001</v>
+      </c>
+      <c r="AE29">
+        <v>28.7257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>1371.02</v>
+      </c>
+      <c r="C30">
+        <v>1495.38</v>
+      </c>
+      <c r="D30">
+        <v>1495.69</v>
+      </c>
+      <c r="E30">
+        <v>1342.98</v>
+      </c>
+      <c r="F30">
+        <v>1271.01</v>
+      </c>
+      <c r="G30">
+        <v>1228.6500000000001</v>
+      </c>
+      <c r="H30">
+        <v>1238.28</v>
+      </c>
+      <c r="I30">
+        <v>1258.1300000000001</v>
+      </c>
+      <c r="J30">
+        <v>1242.4000000000001</v>
+      </c>
+      <c r="K30">
+        <v>1191.22</v>
+      </c>
+      <c r="L30">
+        <v>1112.01</v>
+      </c>
+      <c r="M30">
+        <v>1044.81</v>
+      </c>
+      <c r="N30">
+        <v>1052.3699999999999</v>
+      </c>
+      <c r="O30">
+        <v>1070.55</v>
+      </c>
+      <c r="P30">
+        <v>1111.96</v>
+      </c>
+      <c r="Q30">
+        <v>1120.3399999999999</v>
+      </c>
+      <c r="R30">
+        <v>1073.3599999999999</v>
+      </c>
+      <c r="S30">
+        <v>979.46299999999997</v>
+      </c>
+      <c r="T30">
+        <v>850.45299999999997</v>
+      </c>
+      <c r="U30">
+        <v>765.351</v>
+      </c>
+      <c r="V30">
+        <v>767.12300000000005</v>
+      </c>
+      <c r="W30">
+        <v>861.48699999999997</v>
+      </c>
+      <c r="X30">
+        <v>953.89400000000001</v>
+      </c>
+      <c r="Y30">
+        <v>1034.92</v>
+      </c>
+      <c r="Z30">
+        <v>1101.69</v>
+      </c>
+      <c r="AA30">
+        <v>1156.4000000000001</v>
+      </c>
+      <c r="AB30">
+        <v>1205.79</v>
+      </c>
+      <c r="AC30">
+        <v>1253.8599999999999</v>
+      </c>
+      <c r="AD30">
+        <v>1300.7</v>
+      </c>
+      <c r="AE30">
+        <v>1364.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>776.46199999999999</v>
+      </c>
+      <c r="C31">
+        <v>769.24599999999998</v>
+      </c>
+      <c r="D31">
+        <v>769.24599999999998</v>
+      </c>
+      <c r="E31">
+        <v>777.37199999999996</v>
+      </c>
+      <c r="F31">
+        <v>768.28700000000003</v>
+      </c>
+      <c r="G31">
+        <v>758.21</v>
+      </c>
+      <c r="H31">
+        <v>758.21</v>
+      </c>
+      <c r="I31">
+        <v>758.21</v>
+      </c>
+      <c r="J31">
+        <v>758.21</v>
+      </c>
+      <c r="K31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="L31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="M31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="N31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="O31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="P31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="Q31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="R31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="S31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="T31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="U31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="V31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="W31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="X31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="Y31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="Z31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="AA31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="AB31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="AC31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="AD31">
+        <v>762.27300000000002</v>
+      </c>
+      <c r="AE31">
+        <v>762.27300000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>249.863</v>
+      </c>
+      <c r="C32">
+        <v>241.827</v>
+      </c>
+      <c r="D32">
+        <v>240.28700000000001</v>
+      </c>
+      <c r="E32">
+        <v>284.41300000000001</v>
+      </c>
+      <c r="F32">
+        <v>284.43400000000003</v>
+      </c>
+      <c r="G32">
+        <v>284.53399999999999</v>
+      </c>
+      <c r="H32">
+        <v>284.65899999999999</v>
+      </c>
+      <c r="I32">
+        <v>285.13299999999998</v>
+      </c>
+      <c r="J32">
+        <v>285.13299999999998</v>
+      </c>
+      <c r="K32">
+        <v>285.11900000000003</v>
+      </c>
+      <c r="L32">
+        <v>283.96800000000002</v>
+      </c>
+      <c r="M32">
+        <v>283.48</v>
+      </c>
+      <c r="N32">
+        <v>283.28100000000001</v>
+      </c>
+      <c r="O32">
+        <v>283.26400000000001</v>
+      </c>
+      <c r="P32">
+        <v>283.48</v>
+      </c>
+      <c r="Q32">
+        <v>283.48</v>
+      </c>
+      <c r="R32">
+        <v>282.91899999999998</v>
+      </c>
+      <c r="S32">
+        <v>282.91899999999998</v>
+      </c>
+      <c r="T32">
+        <v>282.37200000000001</v>
+      </c>
+      <c r="U32">
+        <v>281.99599999999998</v>
+      </c>
+      <c r="V32">
+        <v>282.108</v>
+      </c>
+      <c r="W32">
+        <v>282.41500000000002</v>
+      </c>
+      <c r="X32">
+        <v>282.56799999999998</v>
+      </c>
+      <c r="Y32">
+        <v>282.91899999999998</v>
+      </c>
+      <c r="Z32">
+        <v>282.91899999999998</v>
+      </c>
+      <c r="AA32">
+        <v>283.26</v>
+      </c>
+      <c r="AB32">
+        <v>283.50799999999998</v>
+      </c>
+      <c r="AC32">
+        <v>283.77800000000002</v>
+      </c>
+      <c r="AD32">
+        <v>285.11900000000003</v>
+      </c>
+      <c r="AE32">
+        <v>285.11900000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>379.404</v>
+      </c>
+      <c r="C33">
+        <v>405.471</v>
+      </c>
+      <c r="D33">
+        <v>425.15300000000002</v>
+      </c>
+      <c r="E33">
+        <v>503.29700000000003</v>
+      </c>
+      <c r="F33">
+        <v>566.30999999999995</v>
+      </c>
+      <c r="G33">
+        <v>640.15099999999995</v>
+      </c>
+      <c r="H33">
+        <v>690.173</v>
+      </c>
+      <c r="I33">
+        <v>738.00199999999995</v>
+      </c>
+      <c r="J33">
+        <v>783.40300000000002</v>
+      </c>
+      <c r="K33">
+        <v>822.13800000000003</v>
+      </c>
+      <c r="L33">
+        <v>873.21799999999996</v>
+      </c>
+      <c r="M33">
+        <v>936.755</v>
+      </c>
+      <c r="N33">
+        <v>960.10599999999999</v>
+      </c>
+      <c r="O33">
+        <v>996.63400000000001</v>
+      </c>
+      <c r="P33">
+        <v>1022.63</v>
+      </c>
+      <c r="Q33">
+        <v>1067</v>
+      </c>
+      <c r="R33">
+        <v>1143.19</v>
+      </c>
+      <c r="S33">
+        <v>1244.99</v>
+      </c>
+      <c r="T33">
+        <v>1358.97</v>
+      </c>
+      <c r="U33">
+        <v>1465.22</v>
+      </c>
+      <c r="V33">
+        <v>1542.38</v>
+      </c>
+      <c r="W33">
+        <v>1547.37</v>
+      </c>
+      <c r="X33">
+        <v>1551.63</v>
+      </c>
+      <c r="Y33">
+        <v>1555.58</v>
+      </c>
+      <c r="Z33">
+        <v>1558.5</v>
+      </c>
+      <c r="AA33">
+        <v>1560.95</v>
+      </c>
+      <c r="AB33">
+        <v>1562.9</v>
+      </c>
+      <c r="AC33">
+        <v>1564.41</v>
+      </c>
+      <c r="AD33">
+        <v>1564.82</v>
+      </c>
+      <c r="AE33">
+        <v>1564.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>111.27</v>
+      </c>
+      <c r="C34">
+        <v>124.997</v>
+      </c>
+      <c r="D34">
+        <v>161.29400000000001</v>
+      </c>
+      <c r="E34">
+        <v>263.685</v>
+      </c>
+      <c r="F34">
+        <v>352.64600000000002</v>
+      </c>
+      <c r="G34">
+        <v>469.35199999999998</v>
+      </c>
+      <c r="H34">
+        <v>572.16700000000003</v>
+      </c>
+      <c r="I34">
+        <v>685.95500000000004</v>
+      </c>
+      <c r="J34">
+        <v>798.21699999999998</v>
+      </c>
+      <c r="K34">
+        <v>904.63199999999995</v>
+      </c>
+      <c r="L34">
+        <v>1033.81</v>
+      </c>
+      <c r="M34">
+        <v>1146.24</v>
+      </c>
+      <c r="N34">
+        <v>1207.8699999999999</v>
+      </c>
+      <c r="O34">
+        <v>1259.93</v>
+      </c>
+      <c r="P34">
+        <v>1297.69</v>
+      </c>
+      <c r="Q34">
+        <v>1351.03</v>
+      </c>
+      <c r="R34">
+        <v>1441.91</v>
+      </c>
+      <c r="S34">
+        <v>1564.71</v>
+      </c>
+      <c r="T34">
+        <v>1698.44</v>
+      </c>
+      <c r="U34">
+        <v>1798.18</v>
+      </c>
+      <c r="V34">
+        <v>1848.07</v>
+      </c>
+      <c r="W34">
+        <v>1865.33</v>
+      </c>
+      <c r="X34">
+        <v>1881.29</v>
+      </c>
+      <c r="Y34">
+        <v>1896.42</v>
+      </c>
+      <c r="Z34">
+        <v>1907.73</v>
+      </c>
+      <c r="AA34">
+        <v>1917.4</v>
+      </c>
+      <c r="AB34">
+        <v>1925.49</v>
+      </c>
+      <c r="AC34">
+        <v>1931.9</v>
+      </c>
+      <c r="AD34">
+        <v>1933.65</v>
+      </c>
+      <c r="AE34">
+        <v>1933.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="C35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="D35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="E35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="F35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="G35">
+        <v>3.0778699999999999</v>
+      </c>
+      <c r="H35">
+        <v>3.40232</v>
+      </c>
+      <c r="I35">
+        <v>3.40232</v>
+      </c>
+      <c r="J35">
+        <v>3.40232</v>
+      </c>
+      <c r="K35">
+        <v>3.40232</v>
+      </c>
+      <c r="L35">
+        <v>3.3927399999999999</v>
+      </c>
+      <c r="M35">
+        <v>3.3426399999999998</v>
+      </c>
+      <c r="N35">
+        <v>3.3371</v>
+      </c>
+      <c r="O35">
+        <v>3.3393600000000001</v>
+      </c>
+      <c r="P35">
+        <v>3.34781</v>
+      </c>
+      <c r="Q35">
+        <v>3.3524699999999998</v>
+      </c>
+      <c r="R35">
+        <v>3.3352599999999999</v>
+      </c>
+      <c r="S35">
+        <v>3.30545</v>
+      </c>
+      <c r="T35">
+        <v>3.2701899999999999</v>
+      </c>
+      <c r="U35">
+        <v>3.2480099999999998</v>
+      </c>
+      <c r="V35">
+        <v>3.2564299999999999</v>
+      </c>
+      <c r="W35">
+        <v>3.2858700000000001</v>
+      </c>
+      <c r="X35">
+        <v>3.3121700000000001</v>
+      </c>
+      <c r="Y35">
+        <v>3.3380299999999998</v>
+      </c>
+      <c r="Z35">
+        <v>3.3573900000000001</v>
+      </c>
+      <c r="AA35">
+        <v>3.3737200000000001</v>
+      </c>
+      <c r="AB35">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="AC35">
+        <v>3.3991600000000002</v>
+      </c>
+      <c r="AD35">
+        <v>3.40232</v>
+      </c>
+      <c r="AE35">
+        <v>3.40232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <v>23.983799999999999</v>
+      </c>
+      <c r="C36">
+        <v>23.485600000000002</v>
+      </c>
+      <c r="D36">
+        <v>23.2775</v>
+      </c>
+      <c r="E36">
+        <v>23.485600000000002</v>
+      </c>
+      <c r="F36">
+        <v>23.485600000000002</v>
+      </c>
+      <c r="G36">
+        <v>23.485600000000002</v>
+      </c>
+      <c r="H36">
+        <v>23.485600000000002</v>
+      </c>
+      <c r="I36">
+        <v>22.6479</v>
+      </c>
+      <c r="J36">
+        <v>22.6479</v>
+      </c>
+      <c r="K36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="L36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="M36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="N36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="O36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="P36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="Q36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="R36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="S36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="T36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="U36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="V36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="W36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="X36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="Y36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="Z36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="AA36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="AB36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="AC36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="AD36">
+        <v>22.560300000000002</v>
+      </c>
+      <c r="AE36">
+        <v>22.560300000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>15.2691</v>
+      </c>
+      <c r="C37">
+        <v>15.5052</v>
+      </c>
+      <c r="D37">
+        <v>15.656499999999999</v>
+      </c>
+      <c r="E37">
+        <v>15.656499999999999</v>
+      </c>
+      <c r="F37">
+        <v>15.656499999999999</v>
+      </c>
+      <c r="G37">
+        <v>15.8139</v>
+      </c>
+      <c r="H37">
+        <v>15.8139</v>
+      </c>
+      <c r="I37">
+        <v>15.8139</v>
+      </c>
+      <c r="J37">
+        <v>15.8139</v>
+      </c>
+      <c r="K37">
+        <v>15.8139</v>
+      </c>
+      <c r="L37">
+        <v>15.8139</v>
+      </c>
+      <c r="M37">
+        <v>15.8139</v>
+      </c>
+      <c r="N37">
+        <v>15.8139</v>
+      </c>
+      <c r="O37">
+        <v>15.8139</v>
+      </c>
+      <c r="P37">
+        <v>15.8139</v>
+      </c>
+      <c r="Q37">
+        <v>15.8139</v>
+      </c>
+      <c r="R37">
+        <v>15.8139</v>
+      </c>
+      <c r="S37">
+        <v>15.8139</v>
+      </c>
+      <c r="T37">
+        <v>15.8139</v>
+      </c>
+      <c r="U37">
+        <v>15.8139</v>
+      </c>
+      <c r="V37">
+        <v>15.8139</v>
+      </c>
+      <c r="W37">
+        <v>15.8139</v>
+      </c>
+      <c r="X37">
+        <v>15.8139</v>
+      </c>
+      <c r="Y37">
+        <v>15.8139</v>
+      </c>
+      <c r="Z37">
+        <v>15.8139</v>
+      </c>
+      <c r="AA37">
+        <v>15.8139</v>
+      </c>
+      <c r="AB37">
+        <v>15.8139</v>
+      </c>
+      <c r="AC37">
+        <v>15.8139</v>
+      </c>
+      <c r="AD37">
+        <v>15.8139</v>
+      </c>
+      <c r="AE37">
+        <v>15.8139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>8.0089199999999998</v>
+      </c>
+      <c r="C38">
+        <v>9.6708599999999993</v>
+      </c>
+      <c r="D38">
+        <v>7.8801699999999997</v>
+      </c>
+      <c r="E38">
+        <v>7.8789800000000003</v>
+      </c>
+      <c r="F38">
+        <v>7.81907</v>
+      </c>
+      <c r="G38">
+        <v>7.8146000000000004</v>
+      </c>
+      <c r="H38">
+        <v>7.8050600000000001</v>
+      </c>
+      <c r="I38">
+        <v>7.8032700000000004</v>
+      </c>
+      <c r="J38">
+        <v>7.7985100000000003</v>
+      </c>
+      <c r="K38">
+        <v>7.6593200000000001</v>
+      </c>
+      <c r="L38">
+        <v>7.6593200000000001</v>
+      </c>
+      <c r="M38">
+        <v>7.6593200000000001</v>
+      </c>
+      <c r="N38">
+        <v>7.6593200000000001</v>
+      </c>
+      <c r="O38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="P38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="Q38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="R38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="S38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="T38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="U38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="V38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="W38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="X38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="Y38">
+        <v>7.6542500000000002</v>
+      </c>
+      <c r="Z38">
+        <v>7.6429299999999998</v>
+      </c>
+      <c r="AA38">
+        <v>7.6429299999999998</v>
+      </c>
+      <c r="AB38">
+        <v>7.6429299999999998</v>
+      </c>
+      <c r="AC38">
+        <v>7.6429299999999998</v>
+      </c>
+      <c r="AD38">
+        <v>7.6429299999999998</v>
+      </c>
+      <c r="AE38">
+        <v>7.6429299999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <v>124.822</v>
+      </c>
+      <c r="C39">
+        <v>125.93600000000001</v>
+      </c>
+      <c r="D39">
+        <v>162.274</v>
+      </c>
+      <c r="E39">
+        <v>169.05500000000001</v>
+      </c>
+      <c r="F39">
+        <v>89.2834</v>
+      </c>
+      <c r="G39">
+        <v>69.720299999999995</v>
+      </c>
+      <c r="H39">
+        <v>76.046000000000006</v>
+      </c>
+      <c r="I39">
+        <v>91.076700000000002</v>
+      </c>
+      <c r="J39">
+        <v>104.794</v>
+      </c>
+      <c r="K39">
+        <v>115.774</v>
+      </c>
+      <c r="L39">
+        <v>104.541</v>
+      </c>
+      <c r="M39">
+        <v>102.89700000000001</v>
+      </c>
+      <c r="N39">
+        <v>115.795</v>
+      </c>
+      <c r="O39">
+        <v>118.10899999999999</v>
+      </c>
+      <c r="P39">
+        <v>130.565</v>
+      </c>
+      <c r="Q39">
+        <v>130.64500000000001</v>
+      </c>
+      <c r="R39">
+        <v>120.96599999999999</v>
+      </c>
+      <c r="S39">
+        <v>104.08799999999999</v>
+      </c>
+      <c r="T39">
+        <v>93.106499999999997</v>
+      </c>
+      <c r="U39">
+        <v>82.624099999999999</v>
+      </c>
+      <c r="V39">
+        <v>82.166899999999998</v>
+      </c>
+      <c r="W39">
+        <v>96.755799999999994</v>
+      </c>
+      <c r="X39">
+        <v>109.688</v>
+      </c>
+      <c r="Y39">
+        <v>130.32400000000001</v>
+      </c>
+      <c r="Z39">
+        <v>162.31800000000001</v>
+      </c>
+      <c r="AA39">
+        <v>185.52600000000001</v>
+      </c>
+      <c r="AB39">
+        <v>207.578</v>
+      </c>
+      <c r="AC39">
+        <v>224.137</v>
+      </c>
+      <c r="AD39">
+        <v>237.55799999999999</v>
+      </c>
+      <c r="AE39">
+        <v>247.965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40">
+        <v>8.8458699999999997</v>
+      </c>
+      <c r="C40">
+        <v>9.7405799999999996</v>
+      </c>
+      <c r="D40">
+        <v>4.8253500000000003</v>
+      </c>
+      <c r="E40">
+        <v>3.4506899999999998</v>
+      </c>
+      <c r="F40">
+        <v>1.05261</v>
+      </c>
+      <c r="G40">
+        <v>1.1251599999999999</v>
+      </c>
+      <c r="H40">
+        <v>1.03861</v>
+      </c>
+      <c r="I40">
+        <v>0.95501499999999995</v>
+      </c>
+      <c r="J40">
+        <v>0.82916299999999998</v>
+      </c>
+      <c r="K40">
+        <v>0.67106900000000003</v>
+      </c>
+      <c r="L40">
+        <v>0.61871200000000004</v>
+      </c>
+      <c r="M40">
+        <v>0.59565800000000002</v>
+      </c>
+      <c r="N40">
+        <v>0.64332500000000004</v>
+      </c>
+      <c r="O40">
+        <v>0.68817600000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.75831099999999996</v>
+      </c>
+      <c r="Q40">
+        <v>0.77678599999999998</v>
+      </c>
+      <c r="R40">
+        <v>0.74547200000000002</v>
+      </c>
+      <c r="S40">
+        <v>0.68999100000000002</v>
+      </c>
+      <c r="T40">
+        <v>0.57359000000000004</v>
+      </c>
+      <c r="U40">
+        <v>0.540103</v>
+      </c>
+      <c r="V40">
+        <v>0.55942400000000003</v>
+      </c>
+      <c r="W40">
+        <v>0.63533899999999999</v>
+      </c>
+      <c r="X40">
+        <v>0.70995900000000001</v>
+      </c>
+      <c r="Y40">
+        <v>0.77342900000000003</v>
+      </c>
+      <c r="Z40">
+        <v>0.84735899999999997</v>
+      </c>
+      <c r="AA40">
+        <v>0.88848400000000005</v>
+      </c>
+      <c r="AB40">
+        <v>0.91481999999999997</v>
+      </c>
+      <c r="AC40">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="AD40">
+        <v>0.93431200000000003</v>
+      </c>
+      <c r="AE40">
+        <v>0.94899100000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>0.13294300000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.13294300000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.66199200000000002</v>
+      </c>
+      <c r="E41">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="F41">
+        <v>11.8726</v>
+      </c>
+      <c r="G41">
+        <v>15.953099999999999</v>
+      </c>
+      <c r="H41">
+        <v>21.2136</v>
+      </c>
+      <c r="I41">
+        <v>21.2136</v>
+      </c>
+      <c r="J41">
+        <v>26.025600000000001</v>
+      </c>
+      <c r="K41">
+        <v>26.025600000000001</v>
+      </c>
+      <c r="L41">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="M41">
+        <v>25.865100000000002</v>
+      </c>
+      <c r="N41">
+        <v>25.849799999999998</v>
+      </c>
+      <c r="O41">
+        <v>25.855799999999999</v>
+      </c>
+      <c r="P41">
+        <v>25.878599999999999</v>
+      </c>
+      <c r="Q41">
+        <v>25.891200000000001</v>
+      </c>
+      <c r="R41">
+        <v>25.841100000000001</v>
+      </c>
+      <c r="S41">
+        <v>25.750699999999998</v>
+      </c>
+      <c r="T41">
+        <v>25.6402</v>
+      </c>
+      <c r="U41">
+        <v>25.561900000000001</v>
+      </c>
+      <c r="V41">
+        <v>25.5838</v>
+      </c>
+      <c r="W41">
+        <v>25.679099999999998</v>
+      </c>
+      <c r="X41">
+        <v>25.7652</v>
+      </c>
+      <c r="Y41">
+        <v>25.842600000000001</v>
+      </c>
+      <c r="Z41">
+        <v>25.900200000000002</v>
+      </c>
+      <c r="AA41">
+        <v>25.9483</v>
+      </c>
+      <c r="AB41">
+        <v>25.987200000000001</v>
+      </c>
+      <c r="AC41">
+        <v>26.017399999999999</v>
+      </c>
+      <c r="AD41">
+        <v>26.025600000000001</v>
+      </c>
+      <c r="AE41">
+        <v>26.025600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>7.8605900000000002</v>
+      </c>
+      <c r="C44">
+        <v>7.0496100000000004</v>
+      </c>
+      <c r="D44">
+        <v>7.0496100000000004</v>
+      </c>
+      <c r="E44">
+        <v>6.9205899999999998</v>
+      </c>
+      <c r="F44">
+        <v>6.9205899999999998</v>
+      </c>
+      <c r="G44">
+        <v>6.9205899999999998</v>
+      </c>
+      <c r="H44">
+        <v>6.7546999999999997</v>
+      </c>
+      <c r="I44">
+        <v>6.7546999999999997</v>
+      </c>
+      <c r="J44">
+        <v>6.5749899999999997</v>
+      </c>
+      <c r="K44">
+        <v>6.5749899999999997</v>
+      </c>
+      <c r="L44">
+        <v>6.2262199999999996</v>
+      </c>
+      <c r="M44">
+        <v>6.0749500000000003</v>
+      </c>
+      <c r="N44">
+        <v>6.0352300000000003</v>
+      </c>
+      <c r="O44">
+        <v>6.0352300000000003</v>
+      </c>
+      <c r="P44">
+        <v>6.10344</v>
+      </c>
+      <c r="Q44">
+        <v>6.10344</v>
+      </c>
+      <c r="R44">
+        <v>5.9668200000000002</v>
+      </c>
+      <c r="S44">
+        <v>5.9668200000000002</v>
+      </c>
+      <c r="T44">
+        <v>5.8256800000000002</v>
+      </c>
+      <c r="U44">
+        <v>5.6010600000000004</v>
+      </c>
+      <c r="V44">
+        <v>5.73834</v>
+      </c>
+      <c r="W44">
+        <v>5.8297999999999996</v>
+      </c>
+      <c r="X44">
+        <v>5.8983800000000004</v>
+      </c>
+      <c r="Y44">
+        <v>5.9668200000000002</v>
+      </c>
+      <c r="Z44">
+        <v>5.9668200000000002</v>
+      </c>
+      <c r="AA44">
+        <v>6.0350299999999999</v>
+      </c>
+      <c r="AB44">
+        <v>6.10344</v>
+      </c>
+      <c r="AC44">
+        <v>6.1709699999999996</v>
+      </c>
+      <c r="AD44">
+        <v>6.4405200000000002</v>
+      </c>
+      <c r="AE44">
+        <v>6.5749899999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3.2461600000000002</v>
+      </c>
+      <c r="K45">
+        <v>6.4923200000000003</v>
+      </c>
+      <c r="L45">
+        <v>30.869700000000002</v>
+      </c>
+      <c r="M45">
+        <v>54.995100000000001</v>
+      </c>
+      <c r="N45">
+        <v>79.222499999999997</v>
+      </c>
+      <c r="O45">
+        <v>103.5</v>
+      </c>
+      <c r="P45">
+        <v>127.86199999999999</v>
+      </c>
+      <c r="Q45">
+        <v>126.929</v>
+      </c>
+      <c r="R45">
+        <v>125.727</v>
+      </c>
+      <c r="S45">
+        <v>124.35899999999999</v>
+      </c>
+      <c r="T45">
+        <v>122.913</v>
+      </c>
+      <c r="U45">
+        <v>121.607</v>
+      </c>
+      <c r="V45">
+        <v>98.341200000000001</v>
+      </c>
+      <c r="W45">
+        <v>75.223299999999995</v>
+      </c>
+      <c r="X45">
+        <v>51.938499999999998</v>
+      </c>
+      <c r="Y45">
+        <v>26.3825</v>
+      </c>
+      <c r="Z45">
+        <v>4.5717100000000004</v>
+      </c>
+      <c r="AA45">
+        <v>4.6604599999999996</v>
+      </c>
+      <c r="AB45">
+        <v>4.7048399999999999</v>
+      </c>
+      <c r="AC45">
+        <v>4.7492200000000002</v>
+      </c>
+      <c r="AD45">
+        <v>4.9710999999999999</v>
+      </c>
+      <c r="AE45">
+        <v>4.9710999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>26.044</v>
+      </c>
+      <c r="M46">
+        <v>36.9572</v>
+      </c>
+      <c r="N46">
+        <v>36.915500000000002</v>
+      </c>
+      <c r="O46">
+        <v>36.9223</v>
+      </c>
+      <c r="P46">
+        <v>36.989699999999999</v>
+      </c>
+      <c r="Q46">
+        <v>37.004100000000001</v>
+      </c>
+      <c r="R46">
+        <v>36.864400000000003</v>
+      </c>
+      <c r="S46">
+        <v>33.055399999999999</v>
+      </c>
+      <c r="T46">
+        <v>32.215400000000002</v>
+      </c>
+      <c r="U46">
+        <v>31.287800000000001</v>
+      </c>
+      <c r="V46">
+        <v>31.567299999999999</v>
+      </c>
+      <c r="W46">
+        <v>32.232199999999999</v>
+      </c>
+      <c r="X46">
+        <v>32.660400000000003</v>
+      </c>
+      <c r="Y46">
+        <v>30.906400000000001</v>
+      </c>
+      <c r="Z46">
+        <v>30.9221</v>
+      </c>
+      <c r="AA46">
+        <v>31.326799999999999</v>
+      </c>
+      <c r="AB46">
+        <v>31.6065</v>
+      </c>
+      <c r="AC46">
+        <v>31.975999999999999</v>
+      </c>
+      <c r="AD46">
+        <v>33.730499999999999</v>
+      </c>
+      <c r="AE46">
+        <v>33.796999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="13">
+        <f>SUMPRODUCT(B2:B25,B28:B51)/SUM(B28:B51)</f>
+        <v>0.38808476763260158</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" ref="C54:AE54" si="0">SUMPRODUCT(C2:C25,C28:C51)/SUM(C28:C51)</f>
+        <v>0.38428918695305264</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.40246750824452632</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4584009938623711</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48841946514232115</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52584809259850651</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55525504790974811</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.58407573945579738</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.61340834484685625</v>
+      </c>
+      <c r="K54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.64531378865545652</v>
+      </c>
+      <c r="L54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68578637173271839</v>
+      </c>
+      <c r="M54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.71789792358487059</v>
+      </c>
+      <c r="N54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.72650277413869246</v>
+      </c>
+      <c r="O54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.735379105731365</v>
+      </c>
+      <c r="P54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.73798014989519767</v>
+      </c>
+      <c r="Q54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.74221638239028254</v>
+      </c>
+      <c r="R54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75931538035228552</v>
+      </c>
+      <c r="S54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78636494389974287</v>
+      </c>
+      <c r="T54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81754484876377442</v>
+      </c>
+      <c r="U54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.83929279673927148</v>
+      </c>
+      <c r="V54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84220745107382811</v>
+      </c>
+      <c r="W54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.82573890504578296</v>
+      </c>
+      <c r="X54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81016212700929502</v>
+      </c>
+      <c r="Y54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79539205698504523</v>
+      </c>
+      <c r="Z54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78149313167285284</v>
+      </c>
+      <c r="AA54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.77133890501015978</v>
+      </c>
+      <c r="AB54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76214361146559884</v>
+      </c>
+      <c r="AC54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75402506134108416</v>
+      </c>
+      <c r="AD54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.74655401157439572</v>
+      </c>
+      <c r="AE54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.73739980482919754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="14">
+        <f>ROUNDDOWN(B54,3)</f>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C55" s="14">
+        <f t="shared" ref="C55:I55" si="1">ROUNDDOWN(C54,3)</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="1"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" ref="J55" si="2">ROUNDDOWN(J54,3)</f>
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" ref="K55" si="3">ROUNDDOWN(K54,3)</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" ref="L55" si="4">ROUNDDOWN(L54,3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="M55" s="14">
+        <f t="shared" ref="M55" si="5">ROUNDDOWN(M54,3)</f>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="N55" s="14">
+        <f t="shared" ref="N55" si="6">ROUNDDOWN(N54,3)</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="O55" s="14">
+        <f t="shared" ref="O55:P55" si="7">ROUNDDOWN(O54,3)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P55" s="14">
+        <f t="shared" si="7"/>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="Q55" s="14">
+        <f t="shared" ref="Q55" si="8">ROUNDDOWN(Q54,3)</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="R55" s="14">
+        <f t="shared" ref="R55" si="9">ROUNDDOWN(R54,3)</f>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="S55" s="14">
+        <f t="shared" ref="S55" si="10">ROUNDDOWN(S54,3)</f>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" ref="T55" si="11">ROUNDDOWN(T54,3)</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="U55" s="14">
+        <f t="shared" ref="U55" si="12">ROUNDDOWN(U54,3)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="V55" s="14">
+        <f t="shared" ref="V55:W55" si="13">ROUNDDOWN(V54,3)</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="W55" s="14">
+        <f t="shared" si="13"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="X55" s="14">
+        <f t="shared" ref="X55" si="14">ROUNDDOWN(X54,3)</f>
+        <v>0.81</v>
+      </c>
+      <c r="Y55" s="14">
+        <f t="shared" ref="Y55" si="15">ROUNDDOWN(Y54,3)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Z55" s="14">
+        <f t="shared" ref="Z55" si="16">ROUNDDOWN(Z54,3)</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AA55" s="14">
+        <f t="shared" ref="AA55" si="17">ROUNDDOWN(AA54,3)</f>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AB55" s="14">
+        <f t="shared" ref="AB55" si="18">ROUNDDOWN(AB54,3)</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AC55" s="14">
+        <f t="shared" ref="AC55:AD55" si="19">ROUNDDOWN(AC54,3)</f>
+        <v>0.754</v>
+      </c>
+      <c r="AD55" s="14">
+        <f t="shared" si="19"/>
+        <v>0.746</v>
+      </c>
+      <c r="AE55" s="14">
+        <f t="shared" ref="AE55" si="20">ROUNDDOWN(AE54,3)</f>
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>